--- a/public/downloads/world-records/NON-TESTED-CLASSIC-RAW-SINGLE-LIFTS.xlsx
+++ b/public/downloads/world-records/NON-TESTED-CLASSIC-RAW-SINGLE-LIFTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/world recordes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1154" documentId="8_{549BB9C3-8073-4280-B78C-D5FDAA0537B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E70EE2C6-A3CC-4B53-9AC4-13FA4D6B798D}"/>
+  <xr:revisionPtr revIDLastSave="1205" documentId="8_{549BB9C3-8073-4280-B78C-D5FDAA0537B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EC6CCCF-0FB2-4681-8DC0-162131AAF4CB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
   </bookViews>
   <sheets>
     <sheet name="MEN OPEN" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="170">
   <si>
     <t>Weight</t>
   </si>
@@ -276,9 +276,6 @@
     <t>226.0KG</t>
   </si>
   <si>
-    <t>KAMERON DHADDA</t>
-  </si>
-  <si>
     <t>300.0KG</t>
   </si>
   <si>
@@ -306,12 +303,6 @@
     <t>347.5KG</t>
   </si>
   <si>
-    <t>ANDREW WARD</t>
-  </si>
-  <si>
-    <t>295.0KG</t>
-  </si>
-  <si>
     <t>COLLIN ROBINSON</t>
   </si>
   <si>
@@ -369,9 +360,6 @@
     <t>SEAN HARRISON</t>
   </si>
   <si>
-    <t>DAY OF THE DEAD</t>
-  </si>
-  <si>
     <t>201.0KG</t>
   </si>
   <si>
@@ -529,6 +517,42 @@
   </si>
   <si>
     <t>HARVEY LOCK</t>
+  </si>
+  <si>
+    <t>WPU WORLDS</t>
+  </si>
+  <si>
+    <t>PAUL SMITH #1</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>LUCK MORLEY</t>
+  </si>
+  <si>
+    <t>200.0KG</t>
+  </si>
+  <si>
+    <t>HOSSEIN ZATEH</t>
+  </si>
+  <si>
+    <t>WPU WORLD</t>
+  </si>
+  <si>
+    <t>ALAN WILLEMES</t>
+  </si>
+  <si>
+    <t>180.0KG</t>
+  </si>
+  <si>
+    <t>CJ GUST</t>
+  </si>
+  <si>
+    <t>185.0KG</t>
+  </si>
+  <si>
+    <t>ZOE RUSTON</t>
   </si>
 </sst>
 </file>
@@ -661,6 +685,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -960,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306999F4-8918-254E-B53D-F64ABC5BF343}">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:H56"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1123,7 +1151,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E14" s="15">
         <v>42294</v>
@@ -1132,7 +1160,7 @@
         <v>46</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1142,7 +1170,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E15" s="15">
         <v>42294</v>
@@ -1163,7 +1191,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1172,7 +1200,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>11</v>
@@ -1183,7 +1211,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -1194,7 +1222,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -1212,8 +1240,11 @@
       <c r="G20" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1222,7 +1253,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1231,7 +1262,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>12</v>
@@ -1242,7 +1273,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
@@ -1253,18 +1284,29 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="15">
+        <v>44128</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1273,7 +1315,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1282,7 +1324,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>13</v>
@@ -1293,7 +1335,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
@@ -1304,26 +1346,29 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E30" s="15">
         <v>45025</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1332,7 +1377,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1341,7 +1386,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>14</v>
@@ -1352,7 +1397,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
@@ -1363,7 +1408,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
@@ -1374,7 +1419,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1383,7 +1428,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1392,7 +1437,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
         <v>15</v>
@@ -1403,7 +1448,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
@@ -1414,26 +1459,19 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="15">
-        <v>44863</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D40" s="1"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1442,7 +1480,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1451,7 +1489,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>16</v>
@@ -1462,7 +1500,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
@@ -1473,7 +1511,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
@@ -1484,7 +1522,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1493,7 +1531,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1502,7 +1540,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>17</v>
@@ -1513,7 +1551,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
@@ -1524,18 +1562,29 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D50" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="15">
+        <v>44128</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1544,7 +1593,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1553,7 +1602,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
         <v>18</v>
@@ -1564,7 +1613,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
@@ -1575,7 +1624,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
@@ -1586,7 +1635,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1595,7 +1644,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1604,7 +1653,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
         <v>19</v>
@@ -1615,7 +1664,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
@@ -1626,7 +1675,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
@@ -1637,7 +1686,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1646,7 +1695,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1655,7 +1704,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="1"/>
@@ -1663,7 +1712,7 @@
       <c r="E63"/>
       <c r="F63"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2216,8 +2265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7186C1C6-534A-8649-9BC5-24AFC98A5F9D}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:G52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2259,7 +2308,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>29</v>
@@ -2345,7 +2394,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E11" s="18">
         <v>44078</v>
@@ -2354,7 +2403,7 @@
         <v>46</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -2393,7 +2442,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E15" s="18">
         <v>42841</v>
@@ -2402,7 +2451,7 @@
         <v>46</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -2412,7 +2461,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E16" s="18">
         <v>42841</v>
@@ -2421,7 +2470,7 @@
         <v>46</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -2471,7 +2520,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E21" s="18">
         <v>43709</v>
@@ -2480,7 +2529,7 @@
         <v>46</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -2570,7 +2619,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E30" s="18">
         <v>44485</v>
@@ -2579,7 +2628,7 @@
         <v>46</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -2589,7 +2638,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E31" s="18">
         <v>43709</v>
@@ -2637,7 +2686,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E35" s="18">
         <v>43331</v>
@@ -2646,7 +2695,7 @@
         <v>46</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2656,7 +2705,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E36" s="18">
         <v>43604</v>
@@ -2887,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68180E9-570C-BE40-A2EC-46381CEBEE35}">
   <dimension ref="A1:H556"/>
   <sheetViews>
-    <sheetView topLeftCell="A511" zoomScale="137" workbookViewId="0">
-      <selection activeCell="J516" sqref="J516"/>
+    <sheetView topLeftCell="A329" zoomScale="137" workbookViewId="0">
+      <selection activeCell="H339" sqref="H339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3125,7 +3174,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E34" s="16">
         <v>42428</v>
@@ -3134,7 +3183,7 @@
         <v>46</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -3188,7 +3237,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E40" s="16">
         <v>42322</v>
@@ -3197,7 +3246,7 @@
         <v>46</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -3231,8 +3280,21 @@
       <c r="C45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="H45" s="9"/>
+      <c r="D45" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="16">
+        <v>44128</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
@@ -3251,14 +3313,14 @@
       </c>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E49" s="16">
         <v>42064</v>
@@ -3267,17 +3329,20 @@
         <v>46</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E50" s="16">
         <v>41908</v>
@@ -3286,89 +3351,92 @@
         <v>46</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
         <v>0</v>
@@ -3622,7 +3690,7 @@
         <v>6</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E101" s="16">
         <v>44078</v>
@@ -3641,7 +3709,7 @@
         <v>7</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E102" s="16">
         <v>41819</v>
@@ -3677,7 +3745,7 @@
         <v>6</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E106" s="16">
         <v>43156</v>
@@ -3686,7 +3754,7 @@
         <v>46</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -3696,7 +3764,7 @@
         <v>7</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E107" s="16">
         <v>42294</v>
@@ -3705,7 +3773,7 @@
         <v>46</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -3732,7 +3800,7 @@
         <v>6</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E111" s="16">
         <v>43890</v>
@@ -3741,7 +3809,7 @@
         <v>46</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
@@ -3751,16 +3819,16 @@
         <v>7</v>
       </c>
       <c r="D112" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E112" s="16">
+        <v>44128</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G112" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="E112" s="16">
-        <v>41216</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
@@ -3794,7 +3862,7 @@
         <v>7</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E117" s="16">
         <v>44078</v>
@@ -3803,7 +3871,7 @@
         <v>46</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
@@ -4005,7 +4073,7 @@
         <v>46</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
@@ -4148,7 +4216,7 @@
         <v>6</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E167" s="16">
         <v>42322</v>
@@ -4157,7 +4225,7 @@
         <v>46</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
@@ -4191,7 +4259,7 @@
         <v>6</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E172" s="16">
         <v>45067</v>
@@ -4200,7 +4268,7 @@
         <v>46</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
@@ -4210,7 +4278,7 @@
         <v>7</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E173" s="16">
         <v>41593</v>
@@ -4246,7 +4314,7 @@
         <v>6</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E177" s="16">
         <v>43890</v>
@@ -4255,7 +4323,7 @@
         <v>46</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
@@ -4265,7 +4333,7 @@
         <v>7</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E178" s="16">
         <v>44345</v>
@@ -4274,7 +4342,7 @@
         <v>46</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
@@ -4628,7 +4696,7 @@
         <v>6</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E234" s="16">
         <v>42322</v>
@@ -4637,7 +4705,7 @@
         <v>46</v>
       </c>
       <c r="G234" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
@@ -4647,7 +4715,7 @@
         <v>7</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E235" s="16">
         <v>41593</v>
@@ -4904,31 +4972,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" s="2"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" s="2"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" s="2"/>
       <c r="B275" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C275" s="1"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" s="2"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" s="2"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1" t="s">
@@ -4947,69 +5015,84 @@
         <v>58</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" s="2"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" s="2"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" s="2"/>
       <c r="B280" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C280" s="1"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" s="2"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" s="2"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D282" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E282" s="16">
+        <v>44128</v>
+      </c>
+      <c r="F282" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G282" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H282" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" s="2"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" s="2"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" s="2"/>
       <c r="B285" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C285" s="1"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" s="2"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" s="2"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" s="2"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -5314,100 +5397,115 @@
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337" s="2"/>
       <c r="B337" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C337" s="1"/>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338" s="2"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339" s="2"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D339" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E339" s="16">
+        <v>44128</v>
+      </c>
+      <c r="F339" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G339" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H339" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340" s="2"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341" s="2"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A342" s="2"/>
       <c r="B342" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C342" s="1"/>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A343" s="2"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A344" s="2"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A345" s="2"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A346" s="2"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A347" s="2"/>
       <c r="B347" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C347" s="1"/>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A348" s="2"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A349" s="2"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A350" s="2"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A351" s="2"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A352" s="2"/>
       <c r="B352" s="1" t="s">
         <v>16</v>
@@ -6485,7 +6583,7 @@
         <v>6</v>
       </c>
       <c r="D523" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E523" s="16">
         <v>44535</v>
@@ -6494,7 +6592,7 @@
         <v>46</v>
       </c>
       <c r="G523" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.35">
@@ -6707,10 +6805,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7517E2C-6F9F-784C-B257-599DEE4B6BE5}">
-  <dimension ref="A1:G488"/>
+  <dimension ref="A1:H488"/>
   <sheetViews>
-    <sheetView topLeftCell="A485" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J296" sqref="J296"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6720,7 +6818,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -6845,13 +6943,13 @@
       <c r="C16" s="1"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>9</v>
@@ -6859,7 +6957,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -6867,7 +6965,7 @@
       </c>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -6875,19 +6973,19 @@
       </c>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>10</v>
@@ -6895,7 +6993,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
@@ -6903,7 +7001,7 @@
       </c>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
@@ -6912,19 +7010,19 @@
       <c r="D25" s="10"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>11</v>
@@ -6932,7 +7030,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
@@ -6940,22 +7038,35 @@
       </c>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="16"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D30" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="16">
+        <v>44128</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -7113,7 +7224,7 @@
       <c r="A53" s="2"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D53" s="10"/>
     </row>
@@ -7121,7 +7232,7 @@
       <c r="A54" s="2"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="16"/>
@@ -7135,7 +7246,7 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="10"/>
@@ -7144,7 +7255,7 @@
       <c r="A57" s="2"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D57" s="10"/>
     </row>
@@ -7152,7 +7263,7 @@
       <c r="A58" s="2"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="16"/>
@@ -7166,7 +7277,7 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C60" s="1"/>
     </row>
@@ -7375,7 +7486,7 @@
         <v>6</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E88" s="16">
         <v>44619</v>
@@ -7384,7 +7495,7 @@
         <v>46</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -7422,7 +7533,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E93" s="16">
         <v>43331</v>
@@ -7431,7 +7542,7 @@
         <v>46</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -7441,7 +7552,7 @@
         <v>7</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E94" s="16">
         <v>43128</v>
@@ -7450,7 +7561,7 @@
         <v>46</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -7581,7 +7692,7 @@
       <c r="A112" s="2"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D112" s="10"/>
     </row>
@@ -7589,7 +7700,7 @@
       <c r="A113" s="2"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D113" s="10"/>
     </row>
@@ -7602,7 +7713,7 @@
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="10"/>
@@ -7611,7 +7722,7 @@
       <c r="A116" s="2"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D116" s="10"/>
     </row>
@@ -7619,7 +7730,7 @@
       <c r="A117" s="2"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D117" s="10"/>
     </row>
@@ -7632,7 +7743,7 @@
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C119" s="1"/>
     </row>
@@ -8003,7 +8114,7 @@
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C170" s="1"/>
     </row>
@@ -8416,7 +8527,7 @@
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="2"/>
       <c r="B227" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C227" s="1"/>
     </row>
@@ -8787,7 +8898,7 @@
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="2"/>
       <c r="B278" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C278" s="1"/>
     </row>
@@ -9158,7 +9269,7 @@
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="2"/>
       <c r="B329" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C329" s="1"/>
     </row>
@@ -9529,7 +9640,7 @@
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="2"/>
       <c r="B380" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C380" s="1"/>
     </row>
@@ -9900,7 +10011,7 @@
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="2"/>
       <c r="B431" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C431" s="1"/>
     </row>
@@ -10273,27 +10384,27 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C483" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C484" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B486" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C487" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C488" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -10491,7 +10602,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E10" s="15">
         <v>43709</v>
@@ -10500,7 +10611,7 @@
         <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
@@ -10577,7 +10688,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E15" s="15">
         <v>42106</v>
@@ -10586,7 +10697,7 @@
         <v>46</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
@@ -10672,7 +10783,7 @@
         <v>6</v>
       </c>
       <c r="L20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M20" s="17">
         <v>41818</v>
@@ -10681,7 +10792,7 @@
         <v>46</v>
       </c>
       <c r="O20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -10736,7 +10847,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E24" s="15">
         <v>41818</v>
@@ -10745,7 +10856,7 @@
         <v>46</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="1" t="s">
@@ -10770,7 +10881,7 @@
         <v>6</v>
       </c>
       <c r="L25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M25" s="17">
         <v>42841</v>
@@ -10779,7 +10890,7 @@
         <v>46</v>
       </c>
       <c r="O25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -10834,7 +10945,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E29" s="15">
         <v>42106</v>
@@ -10843,7 +10954,7 @@
         <v>46</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="1" t="s">
@@ -11300,7 +11411,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
@@ -11895,11 +12006,11 @@
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1"/>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -11917,7 +12028,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>29</v>
@@ -11935,7 +12046,7 @@
         <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -12179,7 +12290,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E20" s="15">
         <v>41819</v>
@@ -12188,7 +12299,7 @@
         <v>46</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
@@ -12239,7 +12350,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E24" s="15">
         <v>41741</v>
@@ -12248,7 +12359,7 @@
         <v>46</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
@@ -12333,7 +12444,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E30" s="15">
         <v>42295</v>
@@ -12342,7 +12453,7 @@
         <v>46</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
@@ -12409,7 +12520,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E35" s="15">
         <v>42841</v>
@@ -12418,7 +12529,7 @@
         <v>46</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
@@ -13252,10 +13363,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6422B65-234B-456E-A916-65D202B4702C}">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -13394,13 +13505,13 @@
       <c r="C16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>11</v>
@@ -13408,7 +13519,7 @@
       <c r="C18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -13416,7 +13527,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -13424,19 +13535,19 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>12</v>
@@ -13444,7 +13555,7 @@
       <c r="C23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
@@ -13452,27 +13563,41 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D25" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="17">
+        <v>44128</v>
+      </c>
+      <c r="F25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>13</v>
@@ -13480,7 +13605,7 @@
       <c r="C28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
@@ -13488,7 +13613,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
@@ -13496,13 +13621,13 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -13530,7 +13655,18 @@
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="D35" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="17">
+        <v>44128</v>
+      </c>
+      <c r="F35" t="s">
+        <v>158</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
@@ -13614,7 +13750,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" s="17">
         <v>41819</v>
@@ -13623,7 +13759,7 @@
         <v>46</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -14291,8 +14427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22797B1-D157-4F23-BC29-DEA3C11849AE}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -14615,7 +14751,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E30" s="15">
         <v>42435</v>
@@ -14624,7 +14760,7 @@
         <v>46</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -14714,7 +14850,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E39" s="15">
         <v>42841</v>
@@ -14723,7 +14859,7 @@
         <v>46</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -14733,7 +14869,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E40" s="15">
         <v>42841</v>
@@ -14742,7 +14878,7 @@
         <v>46</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
